--- a/info/INFO-visit-FLYabroad.xlsx
+++ b/info/INFO-visit-FLYabroad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
   <si>
     <t>姓氏</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,6 +161,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>参考合同、信头纸、网站</t>
@@ -177,6 +178,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>参考公司网站、宣传材料、信头纸</t>
@@ -349,6 +351,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>工作起止时间</t>
@@ -358,6 +361,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>要求的是</t>
@@ -368,6 +372,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年-月-日</t>
@@ -377,6 +382,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（使馆要求），有合同的话日期与合同一致，没有合同</t>
@@ -387,6 +393,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大略估计一天</t>
@@ -396,6 +403,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，只要不是周末就可以（使馆也不会那么较真）</t>
@@ -409,6 +417,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>注：</t>
@@ -418,6 +427,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>该信息表格上的</t>
@@ -428,6 +438,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式</t>
@@ -437,6 +448,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">统一使用 </t>
@@ -447,6 +459,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年-月-日</t>
@@ -456,6 +469,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 的格式：1998-10-21，2004-07 </t>
@@ -465,6 +479,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,例如出生年月日，毕业年月，开始工作年月日等。</t>
@@ -489,6 +504,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>地址及邮编</t>
@@ -499,6 +515,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（具体到门牌号）</t>
@@ -514,6 +531,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>FLYaborad 会提供给您对您最方便的银行账号。</t>
@@ -531,6 +549,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>注：</t>
@@ -540,6 +559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -550,6 +570,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>过世</t>
@@ -559,6 +580,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -570,6 +592,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>当前职业</t>
@@ -579,6 +602,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,6 +614,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年月日</t>
@@ -599,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -610,6 +636,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>户口</t>
@@ -619,6 +646,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -664,6 +692,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>国家</t>
@@ -680,6 +709,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>城市</t>
@@ -708,6 +738,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>婚姻状况</t>
@@ -733,6 +764,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>注：</t>
@@ -742,6 +774,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,6 +856,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>存款数（及币种）</t>
@@ -856,6 +890,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>注：</t>
@@ -865,6 +900,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -877,6 +913,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>zixun@FLYabroadVisa.com</t>
@@ -886,6 +923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -947,6 +985,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">学历是指博士，硕士，本科，专科，高等教育部分可以填写中专，技校学历；小学地址和名称不清楚的话可以不提供。初中后学校名称及地址需要通过。
@@ -957,6 +996,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -966,6 +1006,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  中专、技校、专科及以上学历需要填写专业名称
@@ -995,6 +1036,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实际地址或经营地址或信头纸地址</t>
@@ -1011,6 +1053,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实际地址或经营地址或信头纸地址</t>
@@ -1098,17 +1141,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FLYabroad  @ Copyright 2005-20121</t>
-  </si>
-  <si>
-    <t>FLYabroad  @ Copyright 2005-20122</t>
+    <t>FLYabroad  @Copyright 飞出国 From 2005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,11 +1161,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1132,24 +1175,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1157,32 +1189,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1191,52 +1198,21 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1244,6 +1220,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1251,6 +1228,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1259,6 +1237,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1268,7 +1247,16 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1441,8 +1429,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1457,7 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1472,10 +1460,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1496,7 +1484,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,10 +1496,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1523,10 +1511,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1550,10 +1538,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1562,37 +1550,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1607,16 +1595,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1625,31 +1613,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1658,22 +1646,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1682,25 +1670,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2079,8 +2067,8 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2154,19 +2142,19 @@
       <c r="A11" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
@@ -2184,13 +2172,13 @@
       <c r="A16" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
@@ -2310,11 +2298,8 @@
     <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"加拿大,澳大利亚,魁北克,新西兰,都可以"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B13 B16 B10:B11">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"永久居民（移民）,公民,留学生,工签持有者,临时访问,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2330,8 +2315,8 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2567,7 +2552,7 @@
     </row>
     <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="71"/>
@@ -2588,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2984,7 +2969,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3743,7 +3728,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A28" sqref="A28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4373,7 +4358,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A25" sqref="A25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4981,10 +4966,10 @@
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="3" t="s">
         <v>64</v>
       </c>
@@ -5004,8 +4989,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="39"/>
@@ -5020,8 +5005,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="39"/>
@@ -5035,8 +5020,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="39"/>
@@ -5050,8 +5035,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="84"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="39"/>
@@ -5082,13 +5067,13 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="47"/>
       <c r="G24" s="48"/>
       <c r="H24" s="33"/>
@@ -5140,14 +5125,14 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="47"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
@@ -5230,17 +5215,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A16:K16"/>
     <mergeCell ref="A33:K33"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A16:K16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
